--- a/data/TopOnePercent/Jiangxi Normal University.xlsx
+++ b/data/TopOnePercent/Jiangxi Normal University.xlsx
@@ -184,13 +184,13 @@
         </is>
       </c>
       <c r="C7" s="3" t="n">
-        <v>1725.0</v>
+        <v>1707.0</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>28378.0</v>
+        <v>27973.0</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>16.45</v>
+        <v>16.39</v>
       </c>
       <c r="F7" s="3" t="n">
         <v>29.0</v>
@@ -206,16 +206,16 @@
         </is>
       </c>
       <c r="C8" s="3" t="n">
-        <v>424.0</v>
+        <v>425.0</v>
       </c>
       <c r="D8" s="3" t="n">
-        <v>7139.0</v>
+        <v>7011.0</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>16.84</v>
+        <v>16.5</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>7.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="9">
@@ -228,22 +228,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>4639.0</v>
+        <v>4588.0</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>51515.0</v>
+        <v>50704.0</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>11.1</v>
+        <v>11.05</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>49.0</v>
+        <v>48.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Copyright © 2019 Clarivate Analytics</t>
+          <t>Copyright © 2020 Clarivate Analytics</t>
         </is>
       </c>
     </row>
